--- a/datos_casas.xlsx
+++ b/datos_casas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,34 +555,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USD149,000</t>
+          <t>USD365,000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nuevo Chimbote, Santa, Ancash</t>
+          <t>Ur. Santa Patricia Etapa I, La Molina, Lima</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-3a85-1e3ffe3b76e0-89bfbb65-afd5-4f8c</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-f007-1587436fbe65-891f0b5b-8d37-485e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>USD365,000</t>
+          <t>S/.415,000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ur. Santa Patricia Etapa I, La Molina, Lima</t>
+          <t>Castilla, Piura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-f007-1587436fbe65-891f0b5b-8d37-485e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-18a2-fb30be3aa841-6f39d440-870a-120e</t>
         </is>
       </c>
     </row>
@@ -606,374 +606,374 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>USD400,000</t>
+          <t>USD1,300,000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ur. Juan Xxiii, San Borja, Lima</t>
+          <t>San Isidro, Lima</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1de0-a49b0a4a7617-49ab306-a685-4d63</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-c858-e714d33b4c94-29b6433f-b268-4727</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>USD210,000</t>
+          <t>USD2,500,000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ur. San Miguelito, San Miguel, Lima</t>
+          <t>Ur. Humboldt, Miraflores, Lima</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-f42a-f4904ff4422-fe8aa36c-8f8d-4cec</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-2e96-4a06117c3594-263d48ae-976f-4390</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>USD149,000</t>
+          <t>USD1,100,000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ur. Las Delicias De Villa, Chorrillos, Lima</t>
+          <t>Ur. Santa Ines, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-5cbd-99632ff875cb-f99b05f8-aa3f-43da</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-60f8-147c0685e41d-24aad2e0-b605-4563</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>USD363,000</t>
+          <t>S/.790,000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chaclacayo, Lima</t>
+          <t>Castilla, Piura</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-9813-2e1f9a2b1223-f06c527f-8a56-462f</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-7d43-ed83c7cd1d6c-1f1b8b93-9fbb-4e09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>USD280,000</t>
+          <t>USD400,000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Huarochirí, Lima</t>
+          <t>Ur. Juan Xxiii, San Borja, Lima</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-cc32-a106eec6a716-ef9ee19c-9f17-4e18</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-1de0-a49b0a4a7617-49ab306-a685-4d63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>USD165,000</t>
+          <t>USD1,750,000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>San Martín de Porres, Lima</t>
+          <t>Country Club, Urb Risso, Provincia de Lima</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-728a-e1eac6c25ba8-e7a3554b-a169-4bd6</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-bdef-a876d2a7b64a-2b73c23-a997-4302</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>USD600,000</t>
+          <t>USD363,000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ur. Humboldt, Miraflores, Lima</t>
+          <t>Chaclacayo, Lima</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-e9cf-7866ade8a977-e13278f9-a602-4235</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-9813-2e1f9a2b1223-f06c527f-8a56-462f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S/.245,000</t>
+          <t>USD980,000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lurin, Lima</t>
+          <t>La Molina, Lima</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-40-479e37126484-dbbfc926-8f85-4635</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-1625-2d8e36a03b9e-ed5a7520-9587-120e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S/.395,000</t>
+          <t>USD600,000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Castilla, Piura</t>
+          <t>Ur. Humboldt, Miraflores, Lima</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-a88f-db19117fd35f-db7d134f-8ef3-4ac1</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-e9cf-7866ade8a977-e13278f9-a602-4235</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>USD330,000</t>
+          <t>S/.395,000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ur. Pro Quinto Sector Ii Etapa, Los Olivos, Lima</t>
+          <t>Castilla, Piura</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-daaa-a7ed7999e37a-db1fd7ec-bf51-4818</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-a88f-db19117fd35f-db7d134f-8ef3-4ac1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>USD400,000</t>
+          <t>USD330,000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ur. El Abanico, Chaclacayo, Lima</t>
+          <t>Ur. Pro Quinto Sector Ii Etapa, Los Olivos, Lima</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-183c-314700894caf-d09b4fc0-83e0-4542</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-daaa-a7ed7999e37a-db1fd7ec-bf51-4818</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>USD350,000</t>
+          <t>USD1,600,000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ur. Las Viñas (Las Viñas De La Molina Vieja), La Molina, Lima</t>
+          <t>Hu. Cercado De Miraflores, Miraflores, Lima</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-4528-9d41a1446f3-ce18a7c0-826a-4262</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-ecdf-27843598cf70-d8da7e90-9520-4a02</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>USD150,000</t>
+          <t>USD3,750,000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ah. Villa Escudero, Mi Perú, Callao</t>
+          <t>Ur. Cerros De Camacho, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-d3a6-b1263714196e-bc62e3eb-b5b0-4c5d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-3df9-114eeae511fc-d2a37951-b279-489f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>USD450,000</t>
+          <t>USD300,000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ur. Portada Del Sol Etapa I (A.E.M.G), La Molina, Lima</t>
+          <t>Ur. La Luz, Lima</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ccce-19b78ca069a5-b5a8738c-bb08-4ad2</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-a2ba-bd6a63c866c2-d2950c20-a572-120d</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>USD430,500</t>
+          <t>USD400,000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ur. Los Halcones, Chaclacayo, Lima</t>
+          <t>Ur. El Abanico, Chaclacayo, Lima</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-b062-36a8e52acd6b-b4a8c31e-b825-438b</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-183c-314700894caf-d09b4fc0-83e0-4542</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>USD150,000</t>
+          <t>USD350,000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ur. Mariscal Andres Avelino Caceres Sector 2, San Juan de Lurigancho, Lima</t>
+          <t>Ur. Las Viñas (Las Viñas De La Molina Vieja), La Molina, Lima</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-3f86-c3e5ce34fd05-b2ba8915-bd22-4e22</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-4528-9d41a1446f3-ce18a7c0-826a-4262</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>USD390,000</t>
+          <t>USD450,000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ur. Isla Verde, Pueblo Libre, Lima</t>
+          <t>Ur. Portada Del Sol Etapa I (A.E.M.G), La Molina, Lima</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-802-94a2801d7e66-af2e6220-82ab-4112</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-ccce-19b78ca069a5-b5a8738c-bb08-4ad2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>USD529,000</t>
+          <t>USD430,500</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ur. Valle Hermoso Este, Santiago de Surco, Lima</t>
+          <t>Ur. Los Halcones, Chaclacayo, Lima</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-3d53-bf9b97b45e3b-a3a11559-b5d0-4ac7</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-b062-36a8e52acd6b-b4a8c31e-b825-438b</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>USD308,000</t>
+          <t>USD390,000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ur. Paulo Vi, San Miguel, Lima</t>
+          <t>Ur. Isla Verde, Pueblo Libre, Lima</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-99bf-332699eaf1e5-a339a1a7-99da-43eb</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-802-94a2801d7e66-af2e6220-82ab-4112</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>USD217,000</t>
+          <t>USD529,000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chaclacayo, Lima</t>
+          <t>Ur. Valle Hermoso Este, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-46b2-77e154d0fe30-9fe91c63-9fd6-4742</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-3d53-bf9b97b45e3b-a3a11559-b5d0-4ac7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>USD215,000</t>
+          <t>USD308,000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ur. Los Laureles, Chorrillos, Lima</t>
+          <t>Ur. Paulo Vi, San Miguel, Lima</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-c74f-7c31e56360a8-9018fe8a-9450-45b3</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-99bf-332699eaf1e5-a339a1a7-99da-43eb</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>USD250,000</t>
+          <t>USD3,200,000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ur. Aurora, Miraflores, Lima</t>
+          <t>Ur. Santa Teresa, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1acc-adbabbab89e2-852e1641-8349-4b6b</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-fee2-871e3514a0e0-8defa0e1-abb5-4706</t>
         </is>
       </c>
     </row>
@@ -1014,663 +1014,663 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>USD218,000</t>
+          <t>USD850,000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chaclacayo, Lima</t>
+          <t>Ur. San Damian, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-93ea-86c18a6ddb9c-8465f386-beee-46dc</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-e135-312eb1a828b0-7c1b2e7f-b1dc-4d0d</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>USD118,000</t>
+          <t>USD981,500</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Carabayllo, Lima</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-31be-bb0651ce43a7-74ffed01-84b9-4600</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-202-82a2b3202747-7b032a16-bd57-436b</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>USD50,000</t>
+          <t>USD345,000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Co. Victor Andres Belaunde, Puente Piedra, Lima</t>
+          <t>Co. Llanavilla, Villa El Salvador, Lima</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-9a8d-34a2e59a9039-6166eba3-9e3e-4082</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-8c46-b28be6dd8f97-5d291249-a4e4-4ed8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>USD345,000</t>
+          <t>USD320,000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Co. Llanavilla, Villa El Salvador, Lima</t>
+          <t>Ur. Los Proceres, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-8c46-b28be6dd8f97-5d291249-a4e4-4ed8</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-20e5-e527c496e223-52695d95-822e-4029</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>USD230,000</t>
+          <t>USD598,000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Re. Las Torres De San Borja, San Borja, Lima</t>
+          <t>Ur. Los Pinares, Los Olivos, Lima</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-dcdd-960de19acdbc-54cd83b8-ab0a-47c5</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-48a9-905e3bb511fb-51c0a892-b936-48fc</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>USD320,000</t>
+          <t>USD315,000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ur. Los Proceres, Santiago de Surco, Lima</t>
+          <t>Huacho, Huaura, Lima</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-20e5-e527c496e223-52695d95-822e-4029</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-73b3-d2e9ce8bb0a4-4003befe-951c-417d</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>USD598,000</t>
+          <t>S/.498,000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ur. Los Pinares, Los Olivos, Lima</t>
+          <t>Ah. Moron, Chaclacayo, Lima</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-48a9-905e3bb511fb-51c0a892-b936-48fc</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-4b8d-f2951d223349-3429594d-9548-47d8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>USD140,000</t>
+          <t>USD1,000,000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Santa María, Huaura, Lima</t>
+          <t>Ur. Santa Beatriz, Jesús María, Lima</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-c888-773c45e5fb82-4b53e9a3-8a21-44a1</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-5aa-817f164b7e94-318e0333-9434-41ea</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>USD299,000</t>
+          <t>USD329,000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Re. Monterrico Ampliacion, La Molina, Lima</t>
+          <t>Ur. Rinconada Alta Etapa I, La Molina, Lima</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-15d9-76ebd6bc274a-4a02fc81-ac2d-41fb</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-deaf-388fb746e4d9-2f78269d-b9c5-48fc</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>USD315,000</t>
+          <t>USD375,000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Huacho, Huaura, Lima</t>
+          <t>Ag. Cerro Colorado, Cerro Colorado, Arequipa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-73b3-d2e9ce8bb0a4-4003befe-951c-417d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-38f1-286fd91af5a-1f7de094-b8fa-47a6</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>USD170,000</t>
+          <t>USD650,000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Co. Guadalupe, Los Olivos, Lima</t>
+          <t>Ur. La Encantada, Chorrillos, Lima</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-41b6-9dd737c6255b-39e1a342-ba2a-4499</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-b15e-c022e5021d82-1bbe1c6a-a62b-48d4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S/.498,000</t>
+          <t>USD730,000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ah. Moron, Chaclacayo, Lima</t>
+          <t>Ur. Los Patricios (San Felipe), Jesús María, Lima</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-4b8d-f2951d223349-3429594d-9548-47d8</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-e6b-ff31dd8c0e7-1a61f89d-83c6-4cff</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>USD92,000</t>
+          <t>USD850,000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Villa El Salvador, Lima</t>
+          <t>Re. Monterrico, La Molina, Lima</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-15f8-694c38f09c80-2fd15050-8b6d-120e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-fe15-dbcb4a57b334-1192b495-9f2a-42e2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>USD329,000</t>
+          <t>USD350,000</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ur. Rinconada Alta Etapa I, La Molina, Lima</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-deaf-388fb746e4d9-2f78269d-b9c5-48fc</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-f20f-6571621e92fe-98987dd-bff1-4b83</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>USD230,000</t>
+          <t>USD750,000</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ur. La Perla, La Perla, Callao</t>
+          <t>Ur. El Abanico, Chaclacayo, Lima</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-e924-95d23aa5f7fc-25017058-86c8-4a05</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-38ff-61477df05829-97bf9fd-8ab5-4d4d</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>USD375,000</t>
+          <t>USD1,700,000</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ag. Cerro Colorado, Cerro Colorado, Arequipa</t>
+          <t>Ur. El Cortijo Etapa I, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-38f1-286fd91af5a-1f7de094-b8fa-47a6</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-7f91-4d85e0153f9c-310a8f7-839b-4fd9</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>USD650,000</t>
+          <t>USD300,000</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ur. La Encantada, Chorrillos, Lima</t>
+          <t>Ur. El Pinar Sector Parcela G, Comas, Lima</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-b15e-c022e5021d82-1bbe1c6a-a62b-48d4</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-7e4b-9747e837d405-eb61f9a9-9c2d-4889</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>USD730,000</t>
+          <t>USD1,280,000</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ur. Los Patricios (San Felipe), Jesús María, Lima</t>
+          <t>Ur. Ampliacion San Isidro, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-e6b-ff31dd8c0e7-1a61f89d-83c6-4cff</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-4ea4-9f0cf5e88778-e4c540b6-bc66-4441</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S/.79,000</t>
+          <t>USD320,000</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sunampe, Chincha, Ica</t>
+          <t>Ur. Maranga Etapa Iii, San Miguel, Lima</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-163a-233d08a38887-11bd6670-862a-120e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-4dfc-ddbeaae0e993-d1ee68ae-842e-4a8f</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>USD180,000</t>
+          <t>USD1,950,000</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lurigancho, Lima</t>
+          <t>Urb Santa Maria de Chosica, Provincia de Lima</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-bf58-d08c9992aed3-10e61eec-925f-4ccc</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-8ff4-9671a23af3fd-c18ad058-97f3-4d0e</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USD115,000</t>
+          <t>USD1,050,000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ur. Santa Isabel, Carabayllo, Lima</t>
+          <t>Ur. Club Golf De Los Incas, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-e37f-d70b9738e258-e4ae8b7-9b40-4d19</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-9e8e-2f80fa3d92ee-b4272026-bafb-4a0e</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USD164,500</t>
+          <t>USD350,000</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Comas, Lima</t>
+          <t>Ot Centro Historico de Piura, Piura</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-6f84-f92b11b86181-df50fd4-a1ba-4a69</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-984d-e059c74f011f-a7d3c43b-a6f9-365a</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>USD350,000</t>
+          <t>USD450,000</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Ur. Las Viñas (Las Viñas De La Molina Vieja), La Molina, Lima</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-f20f-6571621e92fe-98987dd-bff1-4b83</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-e163-7fe5db3fa91-a76a66c0-b333-120d</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>USD750,000</t>
+          <t>USD535,000</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ur. El Abanico, Chaclacayo, Lima</t>
+          <t>Ur. Los Granados, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-38ff-61477df05829-97bf9fd-8ab5-4d4d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-eaf1-857fe445f0d4-86e1c1e0-af4d-120d</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>USD77,900</t>
+          <t>USD330,000</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ah. Bello Horizonte, Huanchaco, Trujillo, La Libertad</t>
+          <t>Ur. San Felipe, Jesús María, Lima</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-130a-c9a48717fabf-fd421e20-9c3d-120e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-1f00-20faa7e0817d-76ac0bba-87d0-49f2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>USD92,000</t>
+          <t>USD449,000</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ur. Los Sauces, Ate, Lima</t>
+          <t>La Victoria, Lima</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-90a1-daf0485ef661-f61b4a5a-9a82-4130</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-13d8-fb6d3a91b913-5b323010-980d-120e</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>USD185,000</t>
+          <t>USD1,290,000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ah. El Agustino, El Agustino, Lima</t>
+          <t>Re. Monterrico Ampliacion, La Molina, Lima</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ba6a-d994f83ab49c-eeb4b5a0-b2ce-120d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-20f3-ea5c926c0ddb-4d062fb7-bba0-43c7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>USD265,000</t>
+          <t>USD479,999</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ur. Antares Etapa Iii, San Martín de Porres, Lima</t>
+          <t>Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-af5d-e1230726541e-ed200b5f-bf9d-46e1</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-171c-78caf6beac5f-3bffc360-99a9-469a</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>USD300,000</t>
+          <t>USD2,508,800</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ur. El Pinar Sector Parcela G, Comas, Lima</t>
+          <t>Urb San Eduardo, Piura</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-7e4b-9747e837d405-eb61f9a9-9c2d-4889</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-6b44-fe95acc3bb3c-30ebbf0e-abae-4328</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>USD265,000</t>
+          <t>USD520,000</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ur. Maranga Etapa Ii, San Miguel, Lima</t>
+          <t>Ur. La Encantada, Chorrillos, Lima</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ed5b-ce2b5d167105-e7aaff33-8e26-4f02</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-f15f-a6d21257c943-246e9c6a-8ee6-43bf</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>USD65,000</t>
+          <t>USD1,100,000</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pisco, Ica</t>
+          <t>Ur. Santa Constanza, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-bf78-6ee735946865-df393b57-967e-4de2</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-13ac-5bbd55453ad7-15fc27c0-adaa-120e</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>USD74,000</t>
+          <t>USD1,900,000</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ur. Pedregal Bajo, Lurigancho, Lima</t>
+          <t>Ur. La Planicie, La Molina, Lima</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-af4f-21b06915ded9-d6ed5b84-bce8-403c</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-b626-be8e7462bcc8-f7cb1a4a-938f-4f99</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>USD85,000</t>
+          <t>USD1,500,000</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ur. Santa Maria I Etapa, Carabayllo, Lima</t>
+          <t>Ur. La Laguna, La Molina, Lima</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-754f-e26b31ae9a80-d56d9444-8a51-4469</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-82aa-e1dac493ace-ee822123-860d-4bb6</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>USD320,000</t>
+          <t>USD380,000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ur. Maranga Etapa Iii, San Miguel, Lima</t>
+          <t>Ur. Santa Leonor, Chorrillos, Lima</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-4dfc-ddbeaae0e993-d1ee68ae-842e-4a8f</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-fce1-27ad4f3a023e-e8a1e050-b167-4982</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>USD160,000</t>
+          <t>USD315,000</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Santa Eulalia, Huarochirí, Lima</t>
+          <t>Ur. Maranga Etapa Iii, San Miguel, Lima</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ee46-2635ae2a30cc-d0b4c7a8-826f-4521</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-fb33-1b14802da0cb-e180e057-a46b-4909</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>USD165,000</t>
+          <t>USD820,000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chaclacayo, Lima</t>
+          <t>Ur. Orrantia Del Mar, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-7f6a-11c62cd08665-cde30b0a-84cf-4ce4</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-5444-24657c3056cc-cccca7ea-9256-433b</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S/.285,000</t>
+          <t>USD350,000</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chiclayo, Lambayeque</t>
+          <t>Ur. Los Rosales Ampliacion Etapa Ii, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-3bd-e4c92ed9463a-bdf7edb2-9790-4498</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-f3b0-f960b36b12ec-c833c6d0-9856-120d</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>USD146,000</t>
+          <t>USD465,000</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lurigancho, Lima</t>
+          <t>Ur. Industrial Infantas I Sector I Etapa, Los Olivos, Lima</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-e62f-c5cf97f222d2-b8bb6bfd-9fd2-4229</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-7582-daaa39963939-b9a86000-9b47-437d</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>USD350,000</t>
+          <t>USD600,000</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ot Centro Historico de Piura, Piura</t>
+          <t>Ur. San Luis, Miraflores, Lima</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-984d-e059c74f011f-a7d3c43b-a6f9-365a</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-1784-7828b61c62d-94b3bf37-a92c-4c5a</t>
         </is>
       </c>
     </row>
@@ -1682,858 +1682,1623 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ur. Las Viñas (Las Viñas De La Molina Vieja), La Molina, Lima</t>
+          <t>Chorrillos, Lima</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-e163-7fe5db3fa91-a76a66c0-b333-120d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-ed05-489925fd51c2-90ef354a-8c87-46de</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>USD240,000</t>
+          <t>USD680,000</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ur. Los Girasoles (Los Girasoles De Huampani), Lurigancho, Lima</t>
+          <t>Miraflores, Lima</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-c5c0-2291495b1126-a644ff16-8058-4d8d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-dbf3-3afaf0a4d7d-89bb76c0-9117-120d</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>USD139,900</t>
+          <t>USD335,000</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ur. La Rinconada, Trujillo, La Libertad</t>
+          <t>Ur. Adepa, José Luis Bustamante y Rivero, Arequipa</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-36e3-8f166d646dbb-a0a86653-9fbf-4715</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-a4fc-300fa0b807ff-7b91b24a-a413-466e</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>USD270,000</t>
+          <t>USD1,320,000</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Horizonte de Zárate, Provincia de Lima</t>
+          <t>Ur. Country Club, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-124b-efa10eb4a321-9f63ff1c-9487-382f</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-dab3-ab53dd75e9e9-74470fde-a5d4-4c5a</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>USD100,000</t>
+          <t>USD1,214,200</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ur. Carlos Stein 1, José Leonardo Ortiz, Chiclayo, Lambayeque</t>
+          <t>Ur. Chacarilla Santa Cruz Zona Santa Maria, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-4999-8cc2a5a55dac-9f24dc2d-93fb-486b</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-f263-18d29d1995a1-38260744-a979-4896</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>USD230,000</t>
+          <t>USD1,680,000</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ur. Los Girasoles (Los Girasoles De Huampani), Lurigancho, Lima</t>
+          <t>Ur. Molina Vieja Etapa I, La Molina, Lima</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-9762-be8b35cc96a3-9b655de8-b60c-4297</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-4511-c613eab91fcf-329dd5b8-ab9e-418a</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>USD265,000</t>
+          <t>USD370,000</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ur. La Luz, Lima</t>
+          <t>Victoria, Arequipa</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-9003-21c4ef61ad24-986a85a0-886d-4035</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-5329-8d16130fbfb8-1d532458-9aa1-4e25</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>USD150,000</t>
+          <t>USD700,000</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tarapoto, San Martín</t>
+          <t>Urb Ingenieros Valle Hermoso, Provincia de Lima</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-7943-d8e3c2aa10e1-97531092-a30e-4c19</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-3f82-3164313d0420-9fa0133-9adf-3134</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>USD535,000</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Ur. Los Granados, Santiago de Surco, Lima</t>
-        </is>
-      </c>
+          <t>USD450,000</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-eaf1-857fe445f0d4-86e1c1e0-af4d-120d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-1dae-bb3a16a7a0ef-9779c99-96ac-4da5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>USD120,000</t>
+          <t>USD450,000</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ch. Antonia Moreno De Caceres Sector 2 (Ciudad Del Deporte), Ventanilla, Callao</t>
+          <t>Lotizacion Cieneguilla Etapa 3, Provincia de Lima</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-69f5-dd6f87a981e4-7ea569ae-9bb6-4e78</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-64f7-4f5ee65d5848-f5131528-8fab-4510</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>USD150,000</t>
+          <t>USD1,892,400</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Huanta, Ayacucho</t>
+          <t>As. Pampa De Arena, San Juan de Miraflores, Lima</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-52e6-f650ba2befb6-7be92bb6-b39f-499c</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-de5c-2d50eba53b8d-e9224afc-9991-44af</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>USD330,000</t>
+          <t>USD345,000</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ur. San Felipe, Jesús María, Lima</t>
+          <t>Ur. La Alborada, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1f00-20faa7e0817d-76ac0bba-87d0-49f2</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-b6d1-c1d9c2d062a4-e2823bc2-9b8f-4f87</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>USD220,000</t>
+          <t>USD420,000</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Martín de Porres, Lima</t>
+          <t>Ur. Chacarilla Santa Cruz Zona Santa Isabel B, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-155c-6b3582cf793a-74b82410-a493-120e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-ac85-6cbe0ef15dd4-de5ae09f-a3c7-44b9</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>USD165,000</t>
+          <t>USD450,000</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cp. Chosica, Lurigancho, Lima</t>
+          <t>Retamas, Yanahuara, Arequipa</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-2bd4-2ff74f9108d5-72e7e067-96e0-44ac</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-dd90-f8bd59b6a186-dc3d5fb9-b3ea-4b13</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>USD74,000</t>
+          <t>USD550,000</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ur. Pedregal Bajo, Lurigancho, Lima</t>
+          <t>Ur. El Sol De La Molina Etapa Iii, La Molina, Lima</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-b220-a8b83cae4a0c-685bb4fb-b734-4a8a</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-d89c-4479d7f70408-d508e97d-b0e3-4483</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>USD65,000</t>
+          <t>USD930,000</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Andrés, Pisco, Ica</t>
+          <t>Urb Corpac, Provincia de Lima</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-7ad9-3ec277011f41-5b628542-90cf-4c2a</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-2e14-f1b6aa2983f7-d4a51314-ae37-4173</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>USD449,000</t>
+          <t>USD540,000</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>La Victoria, Lima</t>
+          <t>Ur. Jacaranda, San Borja, Lima</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-13d8-fb6d3a91b913-5b323010-980d-120e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-7efd-cfefa655064-cb367a81-927d-4924</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>USD280,000</t>
+          <t>S/.365,000</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ur. Corporacion El Agustino, El Agustino, Lima</t>
+          <t>Castilla, Piura</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-eade-11bbc7d466a1-58e5bbb0-8f5d-120d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-fa5-a1d560ba3eb8-b656e8a0-b194-120e</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>USD65,000</t>
+          <t>USD1,400,000</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ventanilla, Callao</t>
+          <t>Ur. Juan Pablo, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1b0-793a12f3f27f-5366abc0-8b15-120e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-705e-60d18a607d5c-af4cd403-9dee-4a1f</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>USD479,999</t>
+          <t>USD870,000</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Santiago de Surco, Lima</t>
+          <t>Rinconada Del Lago, Provincia de Lima</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-171c-78caf6beac5f-3bffc360-99a9-469a</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-c964-906e75776951-a0611988-b85f-4254</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>USD149,000</t>
+          <t>S/.360,000</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ah. Tapada, Chaclacayo, Lima</t>
+          <t>Castilla, Piura</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ce24-a6825c82bfcd-3b926336-b6d0-4164</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-b050-e11606facf21-9e584454-aade-4a2c</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>USD185,000</t>
+          <t>USD450,000</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Pj. Señor De Los Milagros Zona Ii, Comas, Lima</t>
+          <t>Ur. Sucre, Pueblo Libre, Lima</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-8077-79af8c59aa7c-35dbf480-8a50-3b45</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-3cb7-537ff91b5895-8eaedb64-9fcf-4ac7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>USD80,000</t>
+          <t>USD1,145,000</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cp. Viuda, Pachacamac, Lima</t>
+          <t>Ur. Camino Real, La Molina, Lima</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-5847-6c3a23371773-30fe83eb-86dc-4141</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-10e0-9df47a8bb45-89a41080-8b63-120e</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>USD240,000</t>
+          <t>USD450,000</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ur. Los Girasoles (Los Girasoles De Huampani), Lurigancho, Lima</t>
+          <t>Lotizacion Cieneguilla Etapa 1, Provincia de Lima</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ea1-3d99682ec1e9-2eecf8a8-8669-46a3</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-65d0-9e1179b22555-84d592c7-b569-4b31</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>USD520,000</t>
+          <t>USD1,700,000</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ur. La Encantada, Chorrillos, Lima</t>
+          <t>Ur. Las Lagunas De La Molina Etapa I, La Molina, Lima</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-f15f-a6d21257c943-246e9c6a-8ee6-43bf</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-10e7-11f0464b05e2-83bf6960-b550-120e</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>USD170,000</t>
+          <t>USD385,000</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lurigancho, Lima</t>
+          <t>Ur. La Libertad, San Luis, Lima</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1185-c1dd2aa9b617-1e89401c-9c1a-42c4</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-5cbb-21431fefa4ff-7e465367-abdc-4996</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>USD160,000</t>
+          <t>USD550,000</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ur. San Juan Sector D, San Juan de Miraflores, Lima</t>
+          <t>Ur. Reparticion, Comas, Lima</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-85c-4b7bff065302-1b640f53-968c-4c02</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-ea0b-289cd7eb4341-7aeba48d-8448-379a</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>USD70,000</t>
+          <t>USD599,000</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Carabayllo, Lima</t>
+          <t>Ur. Jacaranda, San Borja, Lima</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1973-c7f9f8c634de-17ad5f57-a090-44b4</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-cede-fcd9cbbacbee-77e436fb-8357-46e6</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>USD185,000</t>
+          <t>USD720,000</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ur. Santo Domingo Ii Etapa, Carabayllo, Lima</t>
+          <t>Ur. El Sol De La Molina Etapa Iii, La Molina, Lima</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-f357-7cb682e448c5-16ef3d40-a4cc-4741</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-3355-806b3198eeb7-733ed699-b8ac-427b</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>USD290,000</t>
+          <t>USD330,000</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ur. Villa Del Norte, Los Olivos, Lima</t>
+          <t>Ur. Maranga Etapa Ii, San Miguel, Lima</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-fa5b-4d6d38f16180-2a86e96-ac24-4929</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-dfa8-578f3277f86-7097c183-b361-4e74</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>USD110,000</t>
+          <t>USD2,200,000</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Villa El Salvador, Lima</t>
+          <t>Ur. Las Casuarinas Alta, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ca2-e8abff8c65a-f95c49dc-bf36-48a8</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-10e3-afb28dc33bac-628d5260-8717-120e</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>USD80,000</t>
+          <t>S/.660,000</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ur. Santa Maria I Etapa, Carabayllo, Lima</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-9f0d-6c586c51f1c6-ec9c7ca7-a149-4a8b</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-994a-3191cfcf8cce-58448ee9-ac70-4296</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>USD380,000</t>
+          <t>USD2,800,000</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ur. Santa Leonor, Chorrillos, Lima</t>
+          <t>Ur. Santa Monica, San Isidro, Lima</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-fce1-27ad4f3a023e-e8a1e050-b167-4982</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-7c20-ba8a1824cefb-573b4559-98a9-4089</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>USD315,000</t>
+          <t>USD345,000</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ur. Maranga Etapa Iii, San Miguel, Lima</t>
+          <t>Ur. Las Lomas De La Molina Vieja Etapa Ii, La Molina, Lima</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-fb33-1b14802da0cb-e180e057-a46b-4909</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-aab7-365b4be7504d-4ddb18fc-b482-4c11</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>USD350,000</t>
+          <t>USD825,000</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ur. Los Rosales Ampliacion Etapa Ii, Santiago de Surco, Lima</t>
+          <t>Urb los Patricios, Provincia de Lima</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-f3b0-f960b36b12ec-c833c6d0-9856-120d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-b10c-63e53d297c14-4a803d42-a464-4a70</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>USD465,000</t>
+          <t>USD310,000</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ur. Industrial Infantas I Sector I Etapa, Los Olivos, Lima</t>
+          <t>Ur. La Capullana, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-7582-daaa39963939-b9a86000-9b47-437d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-5ec1-8cd029414364-431f1d01-a858-4c3e</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>USD600,000</t>
+          <t>USD510,000</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ur. San Luis, Miraflores, Lima</t>
+          <t>Ur. Prolongacion Benavides, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1784-7828b61c62d-94b3bf37-a92c-4c5a</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-babc-7d5231d9ee3-1eb9286e-9e27-4a14</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>USD215,000</t>
+          <t>USD1,150,000</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ur. San Juan Sector A, San Juan de Miraflores, Lima</t>
+          <t>Ur. La Planicie Zona Este, La Molina, Lima</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1a51-b96e5e875a58-92c919b8-9aae-4179</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-10ea-45ee2587eeb3-1b1bf7e0-ac97-120e</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>USD450,000</t>
+          <t>USD1,050,000</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Chorrillos, Lima</t>
+          <t>Provincia de Lima</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ed05-489925fd51c2-90ef354a-8c87-46de</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-a7a8-ef0ca01e51a2-9abf5da-b23e-4112</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>USD165,000</t>
+          <t>USD750,000</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ur. Los Cerezos, La Perla, Callao</t>
+          <t>Lotizacion Cieneguilla Etapa 2, Provincia de Lima</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-ec30-da2034d4bff3-90ad7873-b37d-4372</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-e5cd-eeaecb0714f8-64e802e-aa03-41ef</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>USD680,000</t>
+          <t>USD339,000</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Miraflores, Lima</t>
+          <t>Ur. San Roque Civil, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-dbf3-3afaf0a4d7d-89bb76c0-9117-120d</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-b54-dbb5f3e869ed-f5b37db0-8d7f-120e</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>USD335,000</t>
+          <t>USD1,350,000</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ur. Adepa, José Luis Bustamante y Rivero, Arequipa</t>
+          <t>Ur. La Planicie, La Molina, Lima</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-a4fc-300fa0b807ff-7b91b24a-a413-466e</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-f6d3-e0f4d8b23ee3-f44f8f20-9006-4227</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>USD159,000</t>
+          <t>USD300,000</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ur. Fortaleza Ii Etapa, San Juan de Miraflores, Lima</t>
+          <t>Surquillo, Provincia de Lima</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1e95-d03120ab6b5e-4d9d257d-9ce8-40f0</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-40f7-6089498ac417-f27eb4c3-a6ae-4129</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>USD285,000</t>
+          <t>USD395,000</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Los Órganos, Talara, Piura</t>
+          <t>Ate, Lima</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-176a-cbc6e8ace748-4d2acf1e-a893-4bd9</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-8aa9-f3fd1f2b9d99-eaafeac2-a9fe-4d17</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>USD370,000</t>
+          <t>USD545,000</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Victoria, Arequipa</t>
+          <t>Ur. La Alborada, Santiago de Surco, Lima</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-5329-8d16130fbfb8-1d532458-9aa1-4e25</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-8527-f4b186190503-e1f3eab2-9497-4ebb</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>USD700,000</t>
+          <t>USD450,000</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Urb Ingenieros Valle Hermoso, Provincia de Lima</t>
+          <t>Ah. La Merced, Punta Negra, Lima</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-3f82-3164313d0420-9fa0133-9adf-3134</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-2618-db84b10c2110-cefa5c7d-8293-4829</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>USD450,000</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
+          <t>USD500,000</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ur. El Carmen, Pueblo Libre, Lima</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-1dae-bb3a16a7a0ef-9779c99-96ac-4da5</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-570f-ce3b5920dd26-c7271da1-8806-44fc</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S/.124,735</t>
+          <t>USD600,000</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mala, Cañete, Lima</t>
+          <t>Ur. El Remanso, La Molina, Lima</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-8c20-5e732bc668e5-8536d77-b0e8-4dda</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-cfe0-bb8dc182e41e-b2eb78ed-a583-46ea</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>USD185,000</t>
+          <t>USD300,000</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Vichay, Urb los Quenuales, Huaraz, Áncash</t>
+          <t>Ur. Parque San Martin, Pueblo Libre, Lima</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-f4f1-3796de8bb3d2-fa60b979-9ada-4c15</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-5908-bb8e609f8bf5-abc867bf-9503-4541</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>USD260,000</t>
+          <t>USD435,000</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ur. Micaela Bastidas, Los Olivos, Lima</t>
+          <t>Ur. Pando Vii Etapa, San Miguel, Lima</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-b2e3-ea416789bb71-f56ce1a1-8cd0-4bd5</t>
+          <t>https://www.properati.com.pe/detalle/14032-32-bd8-e1a9d0b2f370-a9342960-97ab-120e</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>USD474,000</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Ur. Santa Rosa, San Isidro, Lima</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-8f8d-48f9ef5b3d62-9f6338ab-b2f7-4832</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>USD814,000</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Ur. Valle Hermoso Residencial Etapa Ii, Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-fd8-97fe88d9a652-97cdc4f8-a9e1-4c7a</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>USD300,000</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Barranca, Lima</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-b37-7df18031db9-8bdbdf80-8236-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>USD430,000</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Ur. San Ignacio De Monterrico (San Ignacio De Loyola), Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-6b4-4d4360086f52-85028050-bb00-44ef</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>USD450,000</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Lotizacion Cieneguilla Etapa 3, Provincia de Lima</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>https://www.properati.com.pe/detalle/14032-32-64f7-4f5ee65d5848-f5131528-8fab-4510</t>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Callao</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-ebdb-558927b9a892-806d8230-a600-4957</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>USD418,000</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ur. Uyata, Pueblo Libre, Lima</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-3953-2e61c12ebea1-7ee597ff-872c-46ff</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>USD300,000</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>San Juan de Miraflores, Lima</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-c77-e1bad6b4b24e-74f93060-a879-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>USD760,000</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Rinconada Baja, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-6226-b973989f3f2f-5ddec620-bba1-120d</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>USD649,000</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Ur. La Encantada, Chorrillos, Lima</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-8c20-ae8dd267e2c-59198611-9035-41c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>S/.1,443,000</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ur. Covida Etapa Ii, Los Olivos, Lima</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-5f1c-7b0f45652e93-4c6e99ea-929a-35fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>USD379,000</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Los Baños del Inca, Cajamarca</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-97a7-7cabcc556a8a-4ae8fe0a-8ef9-44c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>USD980,000</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Ur. Las Lagunas De La Molina Etapa I, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-27a5-4cf17e30e405-483cce05-8035-454c</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>USD2,450,000</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Ur. Balta, Miraflores, Lima</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-34a7-4564cc3afa59-4236e951-82af-4a23</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>USD1,500,000</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Ur. San Antonio, Miraflores, Lima</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-c547-78aba7cb9320-40ba98b8-bdc1-4370</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>USD690,000</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Ur. El Sol De La Molina Etapa Iii, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-816f-70c23e72ac36-344ff1d1-876f-4ecf</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>USD620,000</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ur. El Sol De La Molina Etapa I, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-395e-cac2f4b0a5f3-3386b4d4-aec4-456a</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>USD561,000</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Ur. La Alborada, Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-20b7-f3f47b985136-322255b4-a1a2-45c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>USD550,000</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Ur. Santo Tomas, San Borja, Lima</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-8056-6083359e4dfc-230aea64-8482-480d</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>USD1,300,000</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Ur. Bellatrix, Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-5bb4-9efd2c81330b-10d6cedb-b518-43d3</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>USD390,000</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Ur. Santa Patricia Etapa I, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-c7bc-c1c8396a3120-ffeb630-bf5d-120d</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>USD480,000</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Ur. San Andres, Trujillo, La Libertad</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-215-2b914528d27a-ae56dfd-b5ee-4a18</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>USD439,000</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>As. San Juan Masias, San Luis, Lima</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-784-2f401d618859-f1466310-be26-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>S/.2,497,500</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Pachacamac, Lima</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-7c9-da96cd1205ec-efd06ef3-8ff1-3aca</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>USD4,735,000</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ur. Orrantia Del Mar, San Isidro, Lima</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-163-a44b344b063c-eebf60b3-82d5-4135</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>USD2,500,000</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ur. Orrantia, San Isidro, Lima</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-f5f2-34e5f8f69362-ed815d21-b594-47fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>S/.791,200</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ur. Benjamin Doig Etapa Ii, La Perla, Callao</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-cd53-b2171ffe97bb-e6aeffd6-8262-4315</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>USD579,000</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ur. San Borja, San Borja, Lima</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-a2e-bd22dad30639-e5653880-b727-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>USD395,000</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Ur. Prolongacion Benavides, Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-418a-81bfce933165-e523f7d9-b040-4a8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>USD420,000</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Ur. Colmenares, Pueblo Libre, Lima</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-766-701bc240e380-e4558e81-92d5-4933</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>USD585,000</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Ur. Santo Tomas, San Borja, Lima</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-7ed-d53826742688-c4965280-91b0-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>USD320,000</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Pachacamac, Lima</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-3ef1-503fa292433f-ba763e7b-8c86-4314</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>USD630,000</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-8f1-1f48d330e52d-888b6d70-bf13-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>USD1,200,000</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Ur. La Planicie, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-8d8-45ee9628de3f-7fc25190-89d2-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>USD590,000</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Ur. El Carmen, Pueblo Libre, Lima</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-1d6c-9e1279a828fd-7f70d21f-9938-48f0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>USD350,000</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ur. Cascajal, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-e29a-5bda12abbe08-69abb303-8486-444b</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>USD900,000</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Ur. Tambo De Monterrico, Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-f76d-a147c72e5b77-62ff8d41-a8be-4f48</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>USD670,000</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Ur. Santa Catalina, La Victoria, Lima</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-5b67-6ee2b4cc1467-55796a09-a4d6-439c</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>USD2,400,000</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Matamoros, Urb Platanal Bajo, Provincia de Lima</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-23c2-e64a6273db53-4f862ad7-bdde-4789</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>USD760,000</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Santiago de Surco, Lima</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-8f0-91dde9fa1327-4f848a30-94cd-120e</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>USD388,000</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Ur. Sucre, Pueblo Libre, Lima</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-a8f1-7ae3d49da306-432c3698-a805-4eb5</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>USD320,000</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Ur. Balconcillo, La Victoria, Lima</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-5721-51442d031964-3b657877-8094-4e74</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>USD370,000</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Ur. San Damian, San Isidro, Lima</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-6ba4-5ae5d4e72c11-3a84f025-922d-4d1f</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>USD920,000</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Ur. Las Lagunas De La Molina Etapa Iii, La Molina, Lima</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-bdf2-1283024c9142-2d3e39ef-b552-46df</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>USD590,000</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pachacamac, Lima</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-e23f-5a4c05ec1ebf-2b806712-821a-40f5</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>USD570,000</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Los Sirius, La Molina, Provincia de Lima</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-bda-76809ecfe939-2102d818-9793-4896</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>USD935,000</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Ur. El Rosal, Miraflores, Lima</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.properati.com.pe/detalle/14032-32-71a-f5580c6ebbbd-1c02a4d0-8323-120e</t>
         </is>
       </c>
     </row>
